--- a/2023/Open opdrachten.xlsx
+++ b/2023/Open opdrachten.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ArnaudvanGalen\Repos\AdventOfCode\AdventOfCode\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{354F6957-4781-4029-80AA-522925384F5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A296475-3CE2-4872-AB9F-9997F6213132}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="24220" windowHeight="15500" activeTab="1" xr2:uid="{607DF4D7-C89C-4E50-9E7F-41FEF24782AA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="24220" windowHeight="15500" activeTab="2" xr2:uid="{607DF4D7-C89C-4E50-9E7F-41FEF24782AA}"/>
   </bookViews>
   <sheets>
     <sheet name="Day10-FloodFill" sheetId="1" r:id="rId1"/>
@@ -7158,7 +7158,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{111A8147-AE3C-4319-A1CB-97CE341BDCE7}">
   <dimension ref="A1:I1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A985" workbookViewId="0">
+    <sheetView topLeftCell="A985" workbookViewId="0">
       <selection activeCell="L1003" sqref="A1003:L1019"/>
     </sheetView>
   </sheetViews>
@@ -36219,7 +36219,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E1B1066-A0F4-4D8D-81C8-6E2D0F384B8A}">
   <dimension ref="A1:N1001"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
